--- a/reports/WSS-Local-ClientSideTime-Streaming-Measurements.xlsx
+++ b/reports/WSS-Local-ClientSideTime-Streaming-Measurements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18870" windowHeight="4890" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="4890" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1 StreamingSources" sheetId="12" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="31">
   <si>
     <t>"-Xmx512m"</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>2000K Avg</t>
-  </si>
-  <si>
-    <t>OOM issue</t>
   </si>
   <si>
     <t>No of Sources</t>
@@ -230,10 +227,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -308,7 +305,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -440,11 +436,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="286908720"/>
-        <c:axId val="286909472"/>
+        <c:axId val="297542640"/>
+        <c:axId val="297543424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="286908720"/>
+        <c:axId val="297542640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286909472"/>
+        <c:crossAx val="297543424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -494,7 +490,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286909472"/>
+        <c:axId val="297543424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +540,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286908720"/>
+        <c:crossAx val="297542640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -558,7 +554,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -818,11 +813,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="229866456"/>
-        <c:axId val="229866848"/>
+        <c:axId val="298736184"/>
+        <c:axId val="298736576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="229866456"/>
+        <c:axId val="298736184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +859,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229866848"/>
+        <c:crossAx val="298736576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -872,7 +867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229866848"/>
+        <c:axId val="298736576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,7 +917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229866456"/>
+        <c:crossAx val="298736184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1021,6 +1016,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1093,18 +1089,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>73.63</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>97.808999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>130</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1148,18 +1132,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>283.33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>420</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1229,11 +1201,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="288485392"/>
-        <c:axId val="288485784"/>
+        <c:axId val="299140864"/>
+        <c:axId val="299141256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="288485392"/>
+        <c:axId val="299140864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288485784"/>
+        <c:crossAx val="299141256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1301,7 +1273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288485784"/>
+        <c:axId val="299141256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1334,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288485392"/>
+        <c:crossAx val="299140864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1376,6 +1348,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1541,7 +1514,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1687,11 +1659,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="287071960"/>
-        <c:axId val="287072344"/>
+        <c:axId val="297544208"/>
+        <c:axId val="298360488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="287071960"/>
+        <c:axId val="297544208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1733,7 +1705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287072344"/>
+        <c:crossAx val="298360488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1741,7 +1713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287072344"/>
+        <c:axId val="298360488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1791,7 +1763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287071960"/>
+        <c:crossAx val="297544208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2121,11 +2093,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="286776800"/>
-        <c:axId val="286972312"/>
+        <c:axId val="298361272"/>
+        <c:axId val="298361664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="286776800"/>
+        <c:axId val="298361272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2167,7 +2139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286972312"/>
+        <c:crossAx val="298361664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2175,7 +2147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286972312"/>
+        <c:axId val="298361664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,7 +2197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286776800"/>
+        <c:crossAx val="298361272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2559,11 +2531,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="286970800"/>
-        <c:axId val="287210600"/>
+        <c:axId val="298362448"/>
+        <c:axId val="298362840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="286970800"/>
+        <c:axId val="298362448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,7 +2577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287210600"/>
+        <c:crossAx val="298362840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2613,7 +2585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287210600"/>
+        <c:axId val="298362840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2663,7 +2635,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286970800"/>
+        <c:crossAx val="298362448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3074,11 +3046,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="286759728"/>
-        <c:axId val="287291584"/>
+        <c:axId val="298363624"/>
+        <c:axId val="298364016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="286759728"/>
+        <c:axId val="298363624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3120,7 +3092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287291584"/>
+        <c:crossAx val="298364016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3128,7 +3100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287291584"/>
+        <c:axId val="298364016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3178,7 +3150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286759728"/>
+        <c:crossAx val="298363624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3512,11 +3484,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="229863712"/>
-        <c:axId val="229864104"/>
+        <c:axId val="299200752"/>
+        <c:axId val="299201144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="229863712"/>
+        <c:axId val="299200752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3558,7 +3530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229864104"/>
+        <c:crossAx val="299201144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3566,7 +3538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229864104"/>
+        <c:axId val="299201144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3616,7 +3588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229863712"/>
+        <c:crossAx val="299200752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4070,11 +4042,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="229864888"/>
-        <c:axId val="229865280"/>
+        <c:axId val="299201928"/>
+        <c:axId val="298733048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="229864888"/>
+        <c:axId val="299201928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4135,7 +4107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229865280"/>
+        <c:crossAx val="298733048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4143,7 +4115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229865280"/>
+        <c:axId val="298733048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4204,7 +4176,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229864888"/>
+        <c:crossAx val="299201928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4510,11 +4482,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="229863320"/>
-        <c:axId val="229862536"/>
+        <c:axId val="298733832"/>
+        <c:axId val="298734224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="229863320"/>
+        <c:axId val="298733832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4575,7 +4547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229862536"/>
+        <c:crossAx val="298734224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4583,7 +4555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229862536"/>
+        <c:axId val="298734224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4644,7 +4616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229863320"/>
+        <c:crossAx val="298733832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5173,11 +5145,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="229861752"/>
-        <c:axId val="229861360"/>
+        <c:axId val="298735008"/>
+        <c:axId val="298735400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="229861752"/>
+        <c:axId val="298735008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5219,7 +5191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229861360"/>
+        <c:crossAx val="298735400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5227,7 +5199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229861360"/>
+        <c:axId val="298735400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5277,7 +5249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229861752"/>
+        <c:crossAx val="298735008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12388,7 +12360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -12498,10 +12470,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>0.93799999999999994</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>0.99399999999999999</v>
       </c>
       <c r="D11" s="1">
@@ -12781,7 +12753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -13768,7 +13740,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B29" sqref="B29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14299,14 +14271,12 @@
       <c r="A29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14322,7 +14292,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="B2" sqref="B2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14338,25 +14308,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <v>73.63</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>1</v>
       </c>
@@ -14365,12 +14331,8 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <v>97.808999999999997</v>
-      </c>
-      <c r="C3" s="1">
-        <v>189</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>2</v>
       </c>
@@ -14379,12 +14341,8 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
-        <v>110</v>
-      </c>
-      <c r="C4" s="1">
-        <v>283.33</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>3</v>
       </c>
@@ -14393,12 +14351,8 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>130</v>
-      </c>
-      <c r="C5" s="1">
-        <v>420</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>4</v>
       </c>
@@ -14408,10 +14362,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
